--- a/letters/SocialLoginAccountAttachedLetter/rowsForView.xlsx
+++ b/letters/SocialLoginAccountAttachedLetter/rowsForView.xlsx
@@ -170,18 +170,16 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Authentication via your social network has been activated</t>
+          <t>Gmail authentication has been activated</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>960024377</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44588.0</v>
       </c>
     </row>
     <row r="4" customHeight="true" ht="15.0">
@@ -197,18 +195,16 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Authentication via your social network has been activated</t>
+          <t>Gmail authentication has been activated</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>960024377</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44588.0</v>
       </c>
     </row>
     <row r="5" customHeight="true" ht="15.0">
